--- a/medicine/Psychotrope/Jamaica_Blue_Mountain/Jamaica_Blue_Mountain.xlsx
+++ b/medicine/Psychotrope/Jamaica_Blue_Mountain/Jamaica_Blue_Mountain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jamaica Blue Mountain est un type de café obtenu à partir de caféiers cultivés dans les Blue Mountains, en Jamaïque. Les meilleurs lots se distinguent par leur saveur douce et peu amère. De fait, au cours des dernières décennies, le Jamaica Blue Mountain a joui d'une réputation qui faisait de lui l'un des cafés les plus chers et les plus recherchés au monde. Depuis avril 2007, il est cependant nettement surpassé sur l'échelle des prix par le Bourbon pointu, qui est à nouveau produit à La Réunion, ou encore le Kopi Luwak.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1723, le roi Louis XV envoie trois plants de café à la colonie française de la Martinique. Cinq ans plus tard, en 1728, Sir Nicholas Lawes, Gouverneur de la Jamaïque, reçoit un plant de café en cadeau du Gouverneur de la Martinique. 
 La reconnaissance du Blue Mountain est en partie issue d'une histoire particulière : il y a 150 ans[Quand ?], les Anglais envoient les meilleurs caféiers de cette région à tous leurs consulats et ambassades à travers le monde. La Jamaïque s'est donc démarquée par ce cru d'exception issu des meilleurs plants, cultivés dans des conditions idéales : à 2 200 mètres d'altitude, sur les flancs de la Montagne Bleue, les caféiers poussent sur un sol riche. Protégés par une végétation luxuriante, ceux-ci donnent un café réputé.
